--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Selplg-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Selplg-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.134978</v>
+        <v>3.711779</v>
       </c>
       <c r="H2">
-        <v>6.404934000000001</v>
+        <v>11.135337</v>
       </c>
       <c r="I2">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749102</v>
       </c>
       <c r="J2">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749104</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.692291666666666</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N2">
-        <v>26.076875</v>
+        <v>22.415874</v>
       </c>
       <c r="O2">
-        <v>0.7904374164682153</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P2">
-        <v>0.7904374164682153</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q2">
-        <v>18.55785147791667</v>
+        <v>27.734256793282</v>
       </c>
       <c r="R2">
-        <v>167.02066330125</v>
+        <v>249.608311139538</v>
       </c>
       <c r="S2">
-        <v>0.004141858806723911</v>
+        <v>0.006399415496209761</v>
       </c>
       <c r="T2">
-        <v>0.004141858806723911</v>
+        <v>0.006399415496209762</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.134978</v>
+        <v>3.711779</v>
       </c>
       <c r="H3">
-        <v>6.404934000000001</v>
+        <v>11.135337</v>
       </c>
       <c r="I3">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749102</v>
       </c>
       <c r="J3">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749104</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.376338</v>
       </c>
       <c r="O3">
-        <v>0.01140748791558863</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P3">
-        <v>0.01140748791558863</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q3">
-        <v>0.267824450188</v>
+        <v>0.465627828434</v>
       </c>
       <c r="R3">
-        <v>2.410420051692</v>
+        <v>4.190650455906</v>
       </c>
       <c r="S3">
-        <v>5.977475673771734E-05</v>
+        <v>0.0001074391847943377</v>
       </c>
       <c r="T3">
-        <v>5.977475673771734E-05</v>
+        <v>0.0001074391847943377</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.134978</v>
+        <v>3.711779</v>
       </c>
       <c r="H4">
-        <v>6.404934000000001</v>
+        <v>11.135337</v>
       </c>
       <c r="I4">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749102</v>
       </c>
       <c r="J4">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749104</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.09408700000000002</v>
+        <v>0.148662</v>
       </c>
       <c r="N4">
-        <v>0.282261</v>
+        <v>0.445986</v>
       </c>
       <c r="O4">
-        <v>0.00855584327530561</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P4">
-        <v>0.008555843275305609</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q4">
-        <v>0.2008736750860001</v>
+        <v>0.551800489698</v>
       </c>
       <c r="R4">
-        <v>1.807863075774</v>
+        <v>4.966204407282</v>
       </c>
       <c r="S4">
-        <v>4.483225879806143E-05</v>
+        <v>0.0001273227053066325</v>
       </c>
       <c r="T4">
-        <v>4.483225879806143E-05</v>
+        <v>0.0001273227053066326</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.134978</v>
+        <v>3.711779</v>
       </c>
       <c r="H5">
-        <v>6.404934000000001</v>
+        <v>11.135337</v>
       </c>
       <c r="I5">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749102</v>
       </c>
       <c r="J5">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749104</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.04400233333333333</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N5">
-        <v>0.132007</v>
+        <v>0.047879</v>
       </c>
       <c r="O5">
-        <v>0.004001371791509515</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P5">
-        <v>0.004001371791509515</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q5">
-        <v>0.09394401361533333</v>
+        <v>0.05923875558033333</v>
       </c>
       <c r="R5">
-        <v>0.845496122538</v>
+        <v>0.5331488002229999</v>
       </c>
       <c r="S5">
-        <v>2.096701984034526E-05</v>
+        <v>1.366877840868606E-05</v>
       </c>
       <c r="T5">
-        <v>2.096701984034526E-05</v>
+        <v>1.366877840868606E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.134978</v>
+        <v>3.711779</v>
       </c>
       <c r="H6">
-        <v>6.404934000000001</v>
+        <v>11.135337</v>
       </c>
       <c r="I6">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749102</v>
       </c>
       <c r="J6">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749104</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.040985</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N6">
-        <v>6.122955</v>
+        <v>6.437662</v>
       </c>
       <c r="O6">
-        <v>0.1855978805493811</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P6">
-        <v>0.1855978805493811</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q6">
-        <v>4.357458073330001</v>
+        <v>7.965059540232666</v>
       </c>
       <c r="R6">
-        <v>39.21712265997001</v>
+        <v>71.685535862094</v>
       </c>
       <c r="S6">
-        <v>0.0009725250855374428</v>
+        <v>0.001837861595856611</v>
       </c>
       <c r="T6">
-        <v>0.0009725250855374428</v>
+        <v>0.001837861595856612</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.322521333333333</v>
+        <v>3.711779</v>
       </c>
       <c r="H7">
-        <v>3.967564</v>
+        <v>11.135337</v>
       </c>
       <c r="I7">
-        <v>0.003245914545756296</v>
+        <v>0.008539583513749102</v>
       </c>
       <c r="J7">
-        <v>0.003245914545756296</v>
+        <v>0.008539583513749104</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>8.692291666666666</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N7">
-        <v>26.076875</v>
+        <v>0.188716</v>
       </c>
       <c r="O7">
-        <v>0.7904374164682153</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P7">
-        <v>0.7904374164682153</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q7">
-        <v>11.49574116472222</v>
+        <v>0.2334906952546666</v>
       </c>
       <c r="R7">
-        <v>103.4616704825</v>
+        <v>2.101416257292</v>
       </c>
       <c r="S7">
-        <v>0.002565692307624207</v>
+        <v>5.387575317307374E-05</v>
       </c>
       <c r="T7">
-        <v>0.002565692307624207</v>
+        <v>5.387575317307375E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>3.967564</v>
       </c>
       <c r="I8">
-        <v>0.003245914545756296</v>
+        <v>0.00304268690962334</v>
       </c>
       <c r="J8">
-        <v>0.003245914545756296</v>
+        <v>0.003042686909623341</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.125446</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N8">
-        <v>0.376338</v>
+        <v>22.415874</v>
       </c>
       <c r="O8">
-        <v>0.01140748791558863</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P8">
-        <v>0.01140748791558863</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q8">
-        <v>0.1659050111813333</v>
+        <v>9.881823856770668</v>
       </c>
       <c r="R8">
-        <v>1.493145100632</v>
+        <v>88.93641471093601</v>
       </c>
       <c r="S8">
-        <v>3.70277309557483E-05</v>
+        <v>0.002280136698494529</v>
       </c>
       <c r="T8">
-        <v>3.70277309557483E-05</v>
+        <v>0.00228013669849453</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>3.967564</v>
       </c>
       <c r="I9">
-        <v>0.003245914545756296</v>
+        <v>0.00304268690962334</v>
       </c>
       <c r="J9">
-        <v>0.003245914545756296</v>
+        <v>0.003042686909623341</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.09408700000000002</v>
+        <v>0.125446</v>
       </c>
       <c r="N9">
-        <v>0.282261</v>
+        <v>0.376338</v>
       </c>
       <c r="O9">
-        <v>0.00855584327530561</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P9">
-        <v>0.008555843275305609</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q9">
-        <v>0.1244320646893334</v>
+        <v>0.1659050111813333</v>
       </c>
       <c r="R9">
-        <v>1.119888582204</v>
+        <v>1.493145100632</v>
       </c>
       <c r="S9">
-        <v>2.777153613852567E-05</v>
+        <v>3.828100054622159E-05</v>
       </c>
       <c r="T9">
-        <v>2.777153613852567E-05</v>
+        <v>3.82810005462216E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>3.967564</v>
       </c>
       <c r="I10">
-        <v>0.003245914545756296</v>
+        <v>0.00304268690962334</v>
       </c>
       <c r="J10">
-        <v>0.003245914545756296</v>
+        <v>0.003042686909623341</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.04400233333333333</v>
+        <v>0.148662</v>
       </c>
       <c r="N10">
-        <v>0.132007</v>
+        <v>0.445986</v>
       </c>
       <c r="O10">
-        <v>0.004001371791509515</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P10">
-        <v>0.004001371791509515</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q10">
-        <v>0.05819402454977778</v>
+        <v>0.196608666456</v>
       </c>
       <c r="R10">
-        <v>0.5237462209479999</v>
+        <v>1.769477998104</v>
       </c>
       <c r="S10">
-        <v>1.298811090103967E-05</v>
+        <v>4.536557644884965E-05</v>
       </c>
       <c r="T10">
-        <v>1.298811090103967E-05</v>
+        <v>4.536557644884966E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>3.967564</v>
       </c>
       <c r="I11">
-        <v>0.003245914545756296</v>
+        <v>0.00304268690962334</v>
       </c>
       <c r="J11">
-        <v>0.003245914545756296</v>
+        <v>0.003042686909623341</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>2.040985</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N11">
-        <v>6.122955</v>
+        <v>0.047879</v>
       </c>
       <c r="O11">
-        <v>0.1855978805493811</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P11">
-        <v>0.1855978805493811</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q11">
-        <v>2.699246203513334</v>
+        <v>0.02110699963955556</v>
       </c>
       <c r="R11">
-        <v>24.29321583162</v>
+        <v>0.189962996756</v>
       </c>
       <c r="S11">
-        <v>0.0006024348601367756</v>
+        <v>4.870239054128319E-06</v>
       </c>
       <c r="T11">
-        <v>0.0006024348601367756</v>
+        <v>4.87023905412832E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>80.92926666666666</v>
+        <v>1.322521333333333</v>
       </c>
       <c r="H12">
-        <v>242.7878</v>
+        <v>3.967564</v>
       </c>
       <c r="I12">
-        <v>0.1986277856014851</v>
+        <v>0.00304268690962334</v>
       </c>
       <c r="J12">
-        <v>0.1986277856014851</v>
+        <v>0.003042686909623341</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.692291666666666</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N12">
-        <v>26.076875</v>
+        <v>6.437662</v>
       </c>
       <c r="O12">
-        <v>0.7904374164682153</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P12">
-        <v>0.7904374164682153</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q12">
-        <v>703.4607902361111</v>
+        <v>2.83798177726311</v>
       </c>
       <c r="R12">
-        <v>6331.147112125</v>
+        <v>25.541835995368</v>
       </c>
       <c r="S12">
-        <v>0.1570028336896404</v>
+        <v>0.0006548372541130311</v>
       </c>
       <c r="T12">
-        <v>0.1570028336896404</v>
+        <v>0.0006548372541130314</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>80.92926666666666</v>
+        <v>1.322521333333333</v>
       </c>
       <c r="H13">
-        <v>242.7878</v>
+        <v>3.967564</v>
       </c>
       <c r="I13">
-        <v>0.1986277856014851</v>
+        <v>0.00304268690962334</v>
       </c>
       <c r="J13">
-        <v>0.1986277856014851</v>
+        <v>0.003042686909623341</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.125446</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N13">
-        <v>0.376338</v>
+        <v>0.188716</v>
       </c>
       <c r="O13">
-        <v>0.01140748791558863</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P13">
-        <v>0.01140748791558863</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q13">
-        <v>10.15225278626666</v>
+        <v>0.08319364531377776</v>
       </c>
       <c r="R13">
-        <v>91.37027507639999</v>
+        <v>0.7487428078239999</v>
       </c>
       <c r="S13">
-        <v>0.002265844063949069</v>
+        <v>1.919614096657991E-05</v>
       </c>
       <c r="T13">
-        <v>0.00226584406394907</v>
+        <v>1.919614096657992E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>80.92926666666666</v>
+        <v>81.93664033333333</v>
       </c>
       <c r="H14">
-        <v>242.7878</v>
+        <v>245.809921</v>
       </c>
       <c r="I14">
-        <v>0.1986277856014851</v>
+        <v>0.1885092789636783</v>
       </c>
       <c r="J14">
-        <v>0.1986277856014851</v>
+        <v>0.1885092789636784</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.09408700000000002</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N14">
-        <v>0.282261</v>
+        <v>22.415874</v>
       </c>
       <c r="O14">
-        <v>0.00855584327530561</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P14">
-        <v>0.008555843275305609</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q14">
-        <v>7.614391912866668</v>
+        <v>612.2271352317726</v>
       </c>
       <c r="R14">
-        <v>68.52952721580002</v>
+        <v>5510.044217085954</v>
       </c>
       <c r="S14">
-        <v>0.00169942820372731</v>
+        <v>0.1412655780035662</v>
       </c>
       <c r="T14">
-        <v>0.00169942820372731</v>
+        <v>0.1412655780035663</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>80.92926666666666</v>
+        <v>81.93664033333333</v>
       </c>
       <c r="H15">
-        <v>242.7878</v>
+        <v>245.809921</v>
       </c>
       <c r="I15">
-        <v>0.1986277856014851</v>
+        <v>0.1885092789636783</v>
       </c>
       <c r="J15">
-        <v>0.1986277856014851</v>
+        <v>0.1885092789636784</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,28 +1367,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.04400233333333333</v>
+        <v>0.125446</v>
       </c>
       <c r="N15">
-        <v>0.132007</v>
+        <v>0.376338</v>
       </c>
       <c r="O15">
-        <v>0.004001371791509515</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P15">
-        <v>0.004001371791509515</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q15">
-        <v>3.561076568288889</v>
+        <v>10.27862378325533</v>
       </c>
       <c r="R15">
-        <v>32.0496891146</v>
+        <v>92.507614049298</v>
       </c>
       <c r="S15">
-        <v>0.0007947836183157821</v>
+        <v>0.002371694500723287</v>
       </c>
       <c r="T15">
-        <v>0.0007947836183157822</v>
+        <v>0.002371694500723287</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,61 +1411,61 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>80.92926666666666</v>
+        <v>81.93664033333333</v>
       </c>
       <c r="H16">
-        <v>242.7878</v>
+        <v>245.809921</v>
       </c>
       <c r="I16">
-        <v>0.1986277856014851</v>
+        <v>0.1885092789636783</v>
       </c>
       <c r="J16">
-        <v>0.1986277856014851</v>
+        <v>0.1885092789636784</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.040985</v>
+        <v>0.148662</v>
       </c>
       <c r="N16">
-        <v>6.122955</v>
+        <v>0.445986</v>
       </c>
       <c r="O16">
-        <v>0.1855978805493811</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P16">
-        <v>0.1855978805493811</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q16">
-        <v>165.1754193276667</v>
+        <v>12.180864825234</v>
       </c>
       <c r="R16">
-        <v>1486.578773949</v>
+        <v>109.627783427106</v>
       </c>
       <c r="S16">
-        <v>0.03686489602585249</v>
+        <v>0.002810618496137981</v>
       </c>
       <c r="T16">
-        <v>0.0368648960258525</v>
+        <v>0.002810618496137982</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7373666666666666</v>
+        <v>81.93664033333333</v>
       </c>
       <c r="H17">
-        <v>2.2121</v>
+        <v>245.809921</v>
       </c>
       <c r="I17">
-        <v>0.001809747131153398</v>
+        <v>0.1885092789636783</v>
       </c>
       <c r="J17">
-        <v>0.001809747131153399</v>
+        <v>0.1885092789636784</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>8.692291666666666</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N17">
-        <v>26.076875</v>
+        <v>0.047879</v>
       </c>
       <c r="O17">
-        <v>0.7904374164682153</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P17">
-        <v>0.7904374164682153</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q17">
-        <v>6.409406131944444</v>
+        <v>1.307681467506556</v>
       </c>
       <c r="R17">
-        <v>57.68465518749999</v>
+        <v>11.769133207559</v>
       </c>
       <c r="S17">
-        <v>0.001430491846809657</v>
+        <v>0.0003017350387155435</v>
       </c>
       <c r="T17">
-        <v>0.001430491846809657</v>
+        <v>0.0003017350387155437</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.7373666666666666</v>
+        <v>81.93664033333333</v>
       </c>
       <c r="H18">
-        <v>2.2121</v>
+        <v>245.809921</v>
       </c>
       <c r="I18">
-        <v>0.001809747131153398</v>
+        <v>0.1885092789636783</v>
       </c>
       <c r="J18">
-        <v>0.001809747131153399</v>
+        <v>0.1885092789636784</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.125446</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N18">
-        <v>0.376338</v>
+        <v>6.437662</v>
       </c>
       <c r="O18">
-        <v>0.01140748791558863</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P18">
-        <v>0.01140748791558863</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q18">
-        <v>0.09249969886666665</v>
+        <v>175.8267986271891</v>
       </c>
       <c r="R18">
-        <v>0.8324972897999998</v>
+        <v>1582.441187644702</v>
       </c>
       <c r="S18">
-        <v>2.064466852890358E-05</v>
+        <v>0.04057035846211456</v>
       </c>
       <c r="T18">
-        <v>2.064466852890358E-05</v>
+        <v>0.04057035846211458</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.7373666666666666</v>
+        <v>81.93664033333333</v>
       </c>
       <c r="H19">
-        <v>2.2121</v>
+        <v>245.809921</v>
       </c>
       <c r="I19">
-        <v>0.001809747131153398</v>
+        <v>0.1885092789636783</v>
       </c>
       <c r="J19">
-        <v>0.001809747131153399</v>
+        <v>0.1885092789636784</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.09408700000000002</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N19">
-        <v>0.282261</v>
+        <v>0.188716</v>
       </c>
       <c r="O19">
-        <v>0.00855584327530561</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P19">
-        <v>0.008555843275305609</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q19">
-        <v>0.06937661756666667</v>
+        <v>5.154251672381777</v>
       </c>
       <c r="R19">
-        <v>0.6243895581000001</v>
+        <v>46.388265051436</v>
       </c>
       <c r="S19">
-        <v>1.548391282208243E-05</v>
+        <v>0.001189294462420738</v>
       </c>
       <c r="T19">
-        <v>1.548391282208243E-05</v>
+        <v>0.001189294462420738</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7373666666666666</v>
+        <v>0.4187683333333334</v>
       </c>
       <c r="H20">
-        <v>2.2121</v>
+        <v>1.256305</v>
       </c>
       <c r="I20">
-        <v>0.001809747131153398</v>
+        <v>0.0009634482967368267</v>
       </c>
       <c r="J20">
-        <v>0.001809747131153399</v>
+        <v>0.0009634482967368269</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.04400233333333333</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N20">
-        <v>0.132007</v>
+        <v>22.415874</v>
       </c>
       <c r="O20">
-        <v>0.004001371791509515</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P20">
-        <v>0.004001371791509515</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q20">
-        <v>0.03244585385555555</v>
+        <v>3.129019398396667</v>
       </c>
       <c r="R20">
-        <v>0.2920126847</v>
+        <v>28.16117458557</v>
       </c>
       <c r="S20">
-        <v>7.24147112036248E-06</v>
+        <v>0.0007219914121113536</v>
       </c>
       <c r="T20">
-        <v>7.24147112036248E-06</v>
+        <v>0.0007219914121113538</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7373666666666666</v>
+        <v>0.4187683333333334</v>
       </c>
       <c r="H21">
-        <v>2.2121</v>
+        <v>1.256305</v>
       </c>
       <c r="I21">
-        <v>0.001809747131153398</v>
+        <v>0.0009634482967368267</v>
       </c>
       <c r="J21">
-        <v>0.001809747131153399</v>
+        <v>0.0009634482967368269</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.040985</v>
+        <v>0.125446</v>
       </c>
       <c r="N21">
-        <v>6.122955</v>
+        <v>0.376338</v>
       </c>
       <c r="O21">
-        <v>0.1855978805493811</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P21">
-        <v>0.1855978805493811</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q21">
-        <v>1.504954306166667</v>
+        <v>0.05253281234333334</v>
       </c>
       <c r="R21">
-        <v>13.5445887555</v>
+        <v>0.47279531109</v>
       </c>
       <c r="S21">
-        <v>0.0003358852318723935</v>
+        <v>1.212144590262965E-05</v>
       </c>
       <c r="T21">
-        <v>0.0003358852318723935</v>
+        <v>1.212144590262966E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>220.1281486666667</v>
+        <v>0.4187683333333334</v>
       </c>
       <c r="H22">
-        <v>660.384446</v>
+        <v>1.256305</v>
       </c>
       <c r="I22">
-        <v>0.5402689103597607</v>
+        <v>0.0009634482967368267</v>
       </c>
       <c r="J22">
-        <v>0.5402689103597607</v>
+        <v>0.0009634482967368269</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>8.692291666666666</v>
+        <v>0.148662</v>
       </c>
       <c r="N22">
-        <v>26.076875</v>
+        <v>0.445986</v>
       </c>
       <c r="O22">
-        <v>0.7904374164682153</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P22">
-        <v>0.7904374164682153</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q22">
-        <v>1913.418072254028</v>
+        <v>0.06225493797</v>
       </c>
       <c r="R22">
-        <v>17220.76265028625</v>
+        <v>0.56029444173</v>
       </c>
       <c r="S22">
-        <v>0.427048761702867</v>
+        <v>1.436473375617181E-05</v>
       </c>
       <c r="T22">
-        <v>0.427048761702867</v>
+        <v>1.436473375617182E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,61 +1845,61 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>220.1281486666667</v>
+        <v>0.4187683333333334</v>
       </c>
       <c r="H23">
-        <v>660.384446</v>
+        <v>1.256305</v>
       </c>
       <c r="I23">
-        <v>0.5402689103597607</v>
+        <v>0.0009634482967368267</v>
       </c>
       <c r="J23">
-        <v>0.5402689103597607</v>
+        <v>0.0009634482967368269</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>0.125446</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N23">
-        <v>0.376338</v>
+        <v>0.047879</v>
       </c>
       <c r="O23">
-        <v>0.01140748791558863</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P23">
-        <v>0.01140748791558863</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q23">
-        <v>27.61419573763866</v>
+        <v>0.006683403010555556</v>
       </c>
       <c r="R23">
-        <v>248.527761638748</v>
+        <v>0.060150627095</v>
       </c>
       <c r="S23">
-        <v>0.006163111066097205</v>
+        <v>1.542131563573185E-06</v>
       </c>
       <c r="T23">
-        <v>0.006163111066097205</v>
+        <v>1.542131563573185E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>220.1281486666667</v>
+        <v>0.4187683333333334</v>
       </c>
       <c r="H24">
-        <v>660.384446</v>
+        <v>1.256305</v>
       </c>
       <c r="I24">
-        <v>0.5402689103597607</v>
+        <v>0.0009634482967368267</v>
       </c>
       <c r="J24">
-        <v>0.5402689103597607</v>
+        <v>0.0009634482967368269</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.09408700000000002</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N24">
-        <v>0.282261</v>
+        <v>6.437662</v>
       </c>
       <c r="O24">
-        <v>0.00855584327530561</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P24">
-        <v>0.008555843275305609</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q24">
-        <v>20.71119712360067</v>
+        <v>0.8986296621011111</v>
       </c>
       <c r="R24">
-        <v>186.400774112406</v>
+        <v>8.087666958909999</v>
       </c>
       <c r="S24">
-        <v>0.004622456123558247</v>
+        <v>0.0002073502321647418</v>
       </c>
       <c r="T24">
-        <v>0.004622456123558247</v>
+        <v>0.0002073502321647419</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>220.1281486666667</v>
+        <v>0.4187683333333334</v>
       </c>
       <c r="H25">
-        <v>660.384446</v>
+        <v>1.256305</v>
       </c>
       <c r="I25">
-        <v>0.5402689103597607</v>
+        <v>0.0009634482967368267</v>
       </c>
       <c r="J25">
-        <v>0.5402689103597607</v>
+        <v>0.0009634482967368269</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.04400233333333333</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N25">
-        <v>0.132007</v>
+        <v>0.188716</v>
       </c>
       <c r="O25">
-        <v>0.004001371791509515</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P25">
-        <v>0.004001371791509515</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q25">
-        <v>9.686152173680222</v>
+        <v>0.02634276159777778</v>
       </c>
       <c r="R25">
-        <v>87.17536956312199</v>
+        <v>0.23708485438</v>
       </c>
       <c r="S25">
-        <v>0.002161816777743129</v>
+        <v>6.07834123835663E-06</v>
       </c>
       <c r="T25">
-        <v>0.002161816777743129</v>
+        <v>6.078341238356632E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>220.1281486666667</v>
+        <v>276.259491</v>
       </c>
       <c r="H26">
-        <v>660.384446</v>
+        <v>828.7784730000001</v>
       </c>
       <c r="I26">
-        <v>0.5402689103597607</v>
+        <v>0.6355822894790661</v>
       </c>
       <c r="J26">
-        <v>0.5402689103597607</v>
+        <v>0.6355822894790663</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,33 +2049,33 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.040985</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N26">
-        <v>6.122955</v>
+        <v>22.415874</v>
       </c>
       <c r="O26">
-        <v>0.1855978805493811</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P26">
-        <v>0.1855978805493811</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q26">
-        <v>449.2782495064367</v>
+        <v>2064.199313853378</v>
       </c>
       <c r="R26">
-        <v>4043.50424555793</v>
+        <v>18577.7938246804</v>
       </c>
       <c r="S26">
-        <v>0.1002727646894951</v>
+        <v>0.4762943234714193</v>
       </c>
       <c r="T26">
-        <v>0.1002727646894951</v>
+        <v>0.4762943234714193</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>102.1895396666667</v>
+        <v>276.259491</v>
       </c>
       <c r="H27">
-        <v>306.568619</v>
+        <v>828.7784730000001</v>
       </c>
       <c r="I27">
-        <v>0.250807684434207</v>
+        <v>0.6355822894790661</v>
       </c>
       <c r="J27">
-        <v>0.250807684434207</v>
+        <v>0.6355822894790663</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>8.692291666666666</v>
+        <v>0.125446</v>
       </c>
       <c r="N27">
-        <v>26.076875</v>
+        <v>0.376338</v>
       </c>
       <c r="O27">
-        <v>0.7904374164682153</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P27">
-        <v>0.7904374164682153</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q27">
-        <v>888.2612840650694</v>
+        <v>34.655648107986</v>
       </c>
       <c r="R27">
-        <v>7994.351556585624</v>
+        <v>311.900832971874</v>
       </c>
       <c r="S27">
-        <v>0.19824777811455</v>
+        <v>0.007996460593353932</v>
       </c>
       <c r="T27">
-        <v>0.19824777811455</v>
+        <v>0.007996460593353934</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>102.1895396666667</v>
+        <v>276.259491</v>
       </c>
       <c r="H28">
-        <v>306.568619</v>
+        <v>828.7784730000001</v>
       </c>
       <c r="I28">
-        <v>0.250807684434207</v>
+        <v>0.6355822894790661</v>
       </c>
       <c r="J28">
-        <v>0.250807684434207</v>
+        <v>0.6355822894790663</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,33 +2173,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.125446</v>
+        <v>0.148662</v>
       </c>
       <c r="N28">
-        <v>0.376338</v>
+        <v>0.445986</v>
       </c>
       <c r="O28">
-        <v>0.01140748791558863</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P28">
-        <v>0.01140748791558863</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q28">
-        <v>12.81926899302466</v>
+        <v>41.069288451042</v>
       </c>
       <c r="R28">
-        <v>115.373420937222</v>
+        <v>369.623596059378</v>
       </c>
       <c r="S28">
-        <v>0.002861085629319983</v>
+        <v>0.009476346991766832</v>
       </c>
       <c r="T28">
-        <v>0.002861085629319983</v>
+        <v>0.009476346991766835</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>102.1895396666667</v>
+        <v>276.259491</v>
       </c>
       <c r="H29">
-        <v>306.568619</v>
+        <v>828.7784730000001</v>
       </c>
       <c r="I29">
-        <v>0.250807684434207</v>
+        <v>0.6355822894790661</v>
       </c>
       <c r="J29">
-        <v>0.250807684434207</v>
+        <v>0.6355822894790663</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2235,33 +2235,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>0.09408700000000002</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N29">
-        <v>0.282261</v>
+        <v>0.047879</v>
       </c>
       <c r="O29">
-        <v>0.00855584327530561</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P29">
-        <v>0.008555843275305609</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q29">
-        <v>9.614707218617669</v>
+        <v>4.409009389863001</v>
       </c>
       <c r="R29">
-        <v>86.53236496755902</v>
+        <v>39.681084508767</v>
       </c>
       <c r="S29">
-        <v>0.002145871240261382</v>
+        <v>0.00101733690658183</v>
       </c>
       <c r="T29">
-        <v>0.002145871240261381</v>
+        <v>0.001017336906581831</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,108 +2279,480 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>102.1895396666667</v>
+        <v>276.259491</v>
       </c>
       <c r="H30">
-        <v>306.568619</v>
+        <v>828.7784730000001</v>
       </c>
       <c r="I30">
-        <v>0.250807684434207</v>
+        <v>0.6355822894790661</v>
       </c>
       <c r="J30">
-        <v>0.250807684434207</v>
+        <v>0.6355822894790663</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.04400233333333333</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N30">
-        <v>0.132007</v>
+        <v>6.437662</v>
       </c>
       <c r="O30">
-        <v>0.004001371791509515</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P30">
-        <v>0.004001371791509515</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q30">
-        <v>4.496578187592556</v>
+        <v>592.821742450014</v>
       </c>
       <c r="R30">
-        <v>40.469203688333</v>
+        <v>5335.395682050126</v>
       </c>
       <c r="S30">
-        <v>0.001003574793588856</v>
+        <v>0.1367879685185446</v>
       </c>
       <c r="T30">
-        <v>0.001003574793588856</v>
+        <v>0.1367879685185447</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>276.259491</v>
+      </c>
+      <c r="H31">
+        <v>828.7784730000001</v>
+      </c>
+      <c r="I31">
+        <v>0.6355822894790661</v>
+      </c>
+      <c r="J31">
+        <v>0.6355822894790663</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.188716</v>
+      </c>
+      <c r="O31">
+        <v>0.006308943883074792</v>
+      </c>
+      <c r="P31">
+        <v>0.006308943883074792</v>
+      </c>
+      <c r="Q31">
+        <v>17.378195367852</v>
+      </c>
+      <c r="R31">
+        <v>156.403758310668</v>
+      </c>
+      <c r="S31">
+        <v>0.004009852997399626</v>
+      </c>
+      <c r="T31">
+        <v>0.004009852997399627</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>71.006541</v>
+      </c>
+      <c r="H32">
+        <v>213.019623</v>
+      </c>
+      <c r="I32">
+        <v>0.1633627128371462</v>
+      </c>
+      <c r="J32">
+        <v>0.1633627128371462</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>7.471958000000001</v>
+      </c>
+      <c r="N32">
+        <v>22.415874</v>
+      </c>
+      <c r="O32">
+        <v>0.7493826233921622</v>
+      </c>
+      <c r="P32">
+        <v>0.7493826233921622</v>
+      </c>
+      <c r="Q32">
+        <v>530.5578920772781</v>
+      </c>
+      <c r="R32">
+        <v>4775.021028695503</v>
+      </c>
+      <c r="S32">
+        <v>0.1224211783103611</v>
+      </c>
+      <c r="T32">
+        <v>0.1224211783103611</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>71.006541</v>
+      </c>
+      <c r="H33">
+        <v>213.019623</v>
+      </c>
+      <c r="I33">
+        <v>0.1633627128371462</v>
+      </c>
+      <c r="J33">
+        <v>0.1633627128371462</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.125446</v>
+      </c>
+      <c r="N33">
+        <v>0.376338</v>
+      </c>
+      <c r="O33">
+        <v>0.01258131437222388</v>
+      </c>
+      <c r="P33">
+        <v>0.01258131437222388</v>
+      </c>
+      <c r="Q33">
+        <v>8.907486542286</v>
+      </c>
+      <c r="R33">
+        <v>80.16737888057401</v>
+      </c>
+      <c r="S33">
+        <v>0.00205531764690347</v>
+      </c>
+      <c r="T33">
+        <v>0.00205531764690347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>71.006541</v>
+      </c>
+      <c r="H34">
+        <v>213.019623</v>
+      </c>
+      <c r="I34">
+        <v>0.1633627128371462</v>
+      </c>
+      <c r="J34">
+        <v>0.1633627128371462</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.148662</v>
+      </c>
+      <c r="N34">
+        <v>0.445986</v>
+      </c>
+      <c r="O34">
+        <v>0.01490970901585978</v>
+      </c>
+      <c r="P34">
+        <v>0.01490970901585978</v>
+      </c>
+      <c r="Q34">
+        <v>10.555974398142</v>
+      </c>
+      <c r="R34">
+        <v>95.003769583278</v>
+      </c>
+      <c r="S34">
+        <v>0.002435690512443311</v>
+      </c>
+      <c r="T34">
+        <v>0.002435690512443312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>71.006541</v>
+      </c>
+      <c r="H35">
+        <v>213.019623</v>
+      </c>
+      <c r="I35">
+        <v>0.1633627128371462</v>
+      </c>
+      <c r="J35">
+        <v>0.1633627128371462</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.01595966666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.047879</v>
+      </c>
+      <c r="O35">
+        <v>0.001600637593938712</v>
+      </c>
+      <c r="P35">
+        <v>0.001600637593938712</v>
+      </c>
+      <c r="Q35">
+        <v>1.133240725513</v>
+      </c>
+      <c r="R35">
+        <v>10.199166529617</v>
+      </c>
+      <c r="S35">
+        <v>0.0002614844996149505</v>
+      </c>
+      <c r="T35">
+        <v>0.0002614844996149505</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>102.1895396666667</v>
-      </c>
-      <c r="H31">
-        <v>306.568619</v>
-      </c>
-      <c r="I31">
-        <v>0.250807684434207</v>
-      </c>
-      <c r="J31">
-        <v>0.250807684434207</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>2.040985</v>
-      </c>
-      <c r="N31">
-        <v>6.122955</v>
-      </c>
-      <c r="O31">
-        <v>0.1855978805493811</v>
-      </c>
-      <c r="P31">
-        <v>0.1855978805493811</v>
-      </c>
-      <c r="Q31">
-        <v>208.5673176165717</v>
-      </c>
-      <c r="R31">
-        <v>1877.105858549145</v>
-      </c>
-      <c r="S31">
-        <v>0.04654937465648681</v>
-      </c>
-      <c r="T31">
-        <v>0.04654937465648681</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>71.006541</v>
+      </c>
+      <c r="H36">
+        <v>213.019623</v>
+      </c>
+      <c r="I36">
+        <v>0.1633627128371462</v>
+      </c>
+      <c r="J36">
+        <v>0.1633627128371462</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.145887333333333</v>
+      </c>
+      <c r="N36">
+        <v>6.437662</v>
+      </c>
+      <c r="O36">
+        <v>0.2152167717427406</v>
+      </c>
+      <c r="P36">
+        <v>0.2152167717427406</v>
+      </c>
+      <c r="Q36">
+        <v>152.372036915714</v>
+      </c>
+      <c r="R36">
+        <v>1371.348332241426</v>
+      </c>
+      <c r="S36">
+        <v>0.03515839567994697</v>
+      </c>
+      <c r="T36">
+        <v>0.03515839567994698</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>71.006541</v>
+      </c>
+      <c r="H37">
+        <v>213.019623</v>
+      </c>
+      <c r="I37">
+        <v>0.1633627128371462</v>
+      </c>
+      <c r="J37">
+        <v>0.1633627128371462</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M37">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N37">
+        <v>0.188716</v>
+      </c>
+      <c r="O37">
+        <v>0.006308943883074792</v>
+      </c>
+      <c r="P37">
+        <v>0.006308943883074792</v>
+      </c>
+      <c r="Q37">
+        <v>4.466690130451999</v>
+      </c>
+      <c r="R37">
+        <v>40.200211174068</v>
+      </c>
+      <c r="S37">
+        <v>0.001030646187876417</v>
+      </c>
+      <c r="T37">
+        <v>0.001030646187876418</v>
       </c>
     </row>
   </sheetData>
